--- a/data/evaluation/evaluation_Center_Autumn_Grapes.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Grapes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3535.592727272728</v>
+        <v>3664.32</v>
       </c>
       <c r="C3" t="n">
-        <v>18333188.7296</v>
+        <v>18549450.54778182</v>
       </c>
       <c r="D3" t="n">
-        <v>4281.727306777021</v>
+        <v>4306.907306615946</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09799070159707179</v>
+        <v>-0.110942810964207</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3794.698623415134</v>
+        <v>3838.63174403152</v>
       </c>
       <c r="C4" t="n">
-        <v>18951771.95598491</v>
+        <v>19395832.48753561</v>
       </c>
       <c r="D4" t="n">
-        <v>4353.363292442396</v>
+        <v>4404.069991216717</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1350381918483414</v>
+        <v>-0.1616333653219937</v>
       </c>
     </row>
     <row r="5">
